--- a/GMS.xlsx
+++ b/GMS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Компьютер</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>test GIT</t>
+  </si>
+  <si>
+    <t>test commit 2 !!!</t>
   </si>
 </sst>
 </file>
@@ -558,10 +561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1033,11 @@
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
